--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col9a1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col9a1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Col9a1</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,10 +543,10 @@
         <v>0.123478</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2189085596973383</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2189085596973383</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>0.183918</v>
       </c>
       <c r="O2">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P2">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q2">
         <v>0.002523314089333333</v>
@@ -573,10 +573,10 @@
         <v>0.022709826804</v>
       </c>
       <c r="S2">
-        <v>0.1297580344745843</v>
+        <v>0.01214213663210266</v>
       </c>
       <c r="T2">
-        <v>0.1297580344745843</v>
+        <v>0.01214213663210266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,10 +605,10 @@
         <v>0.123478</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2189085596973383</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2189085596973383</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N3">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O3">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P3">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q3">
-        <v>0.01168041512977778</v>
+        <v>0.02221741025977778</v>
       </c>
       <c r="R3">
-        <v>0.105123736168</v>
+        <v>0.199956692338</v>
       </c>
       <c r="S3">
-        <v>0.6006496438529355</v>
+        <v>0.1069097311849015</v>
       </c>
       <c r="T3">
-        <v>0.6006496438529356</v>
+        <v>0.1069097311849015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,40 +667,40 @@
         <v>0.123478</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2189085596973383</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2189085596973383</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N4">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O4">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P4">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q4">
-        <v>0.001090063784</v>
+        <v>0.0002086366606666667</v>
       </c>
       <c r="R4">
-        <v>0.009810574056000001</v>
+        <v>0.001877729946</v>
       </c>
       <c r="S4">
-        <v>0.05605506451285177</v>
+        <v>0.001003955413632081</v>
       </c>
       <c r="T4">
-        <v>0.05605506451285178</v>
+        <v>0.001003955413632081</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,40 +729,288 @@
         <v>0.123478</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2189085596973383</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.2189085596973383</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.4991103333333333</v>
+      </c>
+      <c r="N5">
+        <v>1.497331</v>
+      </c>
+      <c r="O5">
+        <v>0.4515709052372154</v>
+      </c>
+      <c r="P5">
+        <v>0.4515709052372153</v>
+      </c>
+      <c r="Q5">
+        <v>0.02054304857977778</v>
+      </c>
+      <c r="R5">
+        <v>0.184887437218</v>
+      </c>
+      <c r="S5">
+        <v>0.09885273646670205</v>
+      </c>
+      <c r="T5">
+        <v>0.09885273646670203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="F6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M5">
-        <v>0.1008886666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.302666</v>
-      </c>
-      <c r="O5">
-        <v>0.2135372571596283</v>
-      </c>
-      <c r="P5">
-        <v>0.2135372571596284</v>
-      </c>
-      <c r="Q5">
-        <v>0.004152510260888888</v>
-      </c>
-      <c r="R5">
-        <v>0.03737259234799999</v>
-      </c>
-      <c r="S5">
-        <v>0.2135372571596283</v>
-      </c>
-      <c r="T5">
-        <v>0.2135372571596284</v>
+      <c r="G6">
+        <v>0.1468613333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.440584</v>
+      </c>
+      <c r="I6">
+        <v>0.7810914403026618</v>
+      </c>
+      <c r="J6">
+        <v>0.7810914403026618</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.061306</v>
+      </c>
+      <c r="N6">
+        <v>0.183918</v>
+      </c>
+      <c r="O6">
+        <v>0.05546670559109387</v>
+      </c>
+      <c r="P6">
+        <v>0.05546670559109387</v>
+      </c>
+      <c r="Q6">
+        <v>0.009003480901333332</v>
+      </c>
+      <c r="R6">
+        <v>0.08103132811199999</v>
+      </c>
+      <c r="S6">
+        <v>0.04332456895899121</v>
+      </c>
+      <c r="T6">
+        <v>0.04332456895899121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1468613333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.440584</v>
+      </c>
+      <c r="I7">
+        <v>0.7810914403026618</v>
+      </c>
+      <c r="J7">
+        <v>0.7810914403026618</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5397903333333334</v>
+      </c>
+      <c r="N7">
+        <v>1.619371</v>
+      </c>
+      <c r="O7">
+        <v>0.488376202980433</v>
+      </c>
+      <c r="P7">
+        <v>0.4883762029804329</v>
+      </c>
+      <c r="Q7">
+        <v>0.07927432807377778</v>
+      </c>
+      <c r="R7">
+        <v>0.713468952664</v>
+      </c>
+      <c r="S7">
+        <v>0.3814664717955316</v>
+      </c>
+      <c r="T7">
+        <v>0.3814664717955314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1468613333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.440584</v>
+      </c>
+      <c r="I8">
+        <v>0.7810914403026618</v>
+      </c>
+      <c r="J8">
+        <v>0.7810914403026618</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.005069</v>
+      </c>
+      <c r="N8">
+        <v>0.015207</v>
+      </c>
+      <c r="O8">
+        <v>0.004586186191257867</v>
+      </c>
+      <c r="P8">
+        <v>0.004586186191257867</v>
+      </c>
+      <c r="Q8">
+        <v>0.0007444400986666665</v>
+      </c>
+      <c r="R8">
+        <v>0.006699960888</v>
+      </c>
+      <c r="S8">
+        <v>0.003582230777625786</v>
+      </c>
+      <c r="T8">
+        <v>0.003582230777625786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1468613333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.440584</v>
+      </c>
+      <c r="I9">
+        <v>0.7810914403026618</v>
+      </c>
+      <c r="J9">
+        <v>0.7810914403026618</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4991103333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.497331</v>
+      </c>
+      <c r="O9">
+        <v>0.4515709052372154</v>
+      </c>
+      <c r="P9">
+        <v>0.4515709052372153</v>
+      </c>
+      <c r="Q9">
+        <v>0.07330000903377777</v>
+      </c>
+      <c r="R9">
+        <v>0.6597000813039999</v>
+      </c>
+      <c r="S9">
+        <v>0.3527181687705133</v>
+      </c>
+      <c r="T9">
+        <v>0.3527181687705133</v>
       </c>
     </row>
   </sheetData>
